--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Rarres2-Gpr1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H2">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I2">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J2">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.078629666666667</v>
+        <v>1.689526666666667</v>
       </c>
       <c r="N2">
-        <v>6.235889</v>
+        <v>5.06858</v>
       </c>
       <c r="O2">
-        <v>0.4099944837797483</v>
+        <v>0.3793973676518417</v>
       </c>
       <c r="P2">
-        <v>0.4099944837797483</v>
+        <v>0.3793973676518417</v>
       </c>
       <c r="Q2">
-        <v>3.005129646347889</v>
+        <v>1.675933298282222</v>
       </c>
       <c r="R2">
-        <v>27.046166817131</v>
+        <v>15.08339968454</v>
       </c>
       <c r="S2">
-        <v>0.006332188180207989</v>
+        <v>0.003343090046621539</v>
       </c>
       <c r="T2">
-        <v>0.00633218818020799</v>
+        <v>0.003343090046621538</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H3">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I3">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J3">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>7.123807</v>
       </c>
       <c r="O3">
-        <v>0.4683729254179408</v>
+        <v>0.5332368480836376</v>
       </c>
       <c r="P3">
-        <v>0.4683729254179408</v>
+        <v>0.5332368480836375</v>
       </c>
       <c r="Q3">
-        <v>3.433025124494777</v>
+        <v>2.355497074493444</v>
       </c>
       <c r="R3">
-        <v>30.897226120453</v>
+        <v>21.199473670441</v>
       </c>
       <c r="S3">
-        <v>0.007233818062425893</v>
+        <v>0.004698658850359044</v>
       </c>
       <c r="T3">
-        <v>0.007233818062425893</v>
+        <v>0.004698658850359043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.445726333333333</v>
+        <v>0.9919543333333333</v>
       </c>
       <c r="H4">
-        <v>4.337179</v>
+        <v>2.975863</v>
       </c>
       <c r="I4">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="J4">
-        <v>0.01544456920939864</v>
+        <v>0.008811579445878926</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.6166646666666667</v>
+        <v>0.389056</v>
       </c>
       <c r="N4">
-        <v>1.849994</v>
+        <v>1.167168</v>
       </c>
       <c r="O4">
-        <v>0.1216325908023109</v>
+        <v>0.0873657842645208</v>
       </c>
       <c r="P4">
-        <v>0.1216325908023109</v>
+        <v>0.08736578426452078</v>
       </c>
       <c r="Q4">
-        <v>0.8915283474362222</v>
+        <v>0.3859257851093333</v>
       </c>
       <c r="R4">
-        <v>8.023755126926</v>
+        <v>3.473332065984</v>
       </c>
       <c r="S4">
-        <v>0.001878562966764755</v>
+        <v>0.0007698305488983439</v>
       </c>
       <c r="T4">
-        <v>0.001878562966764755</v>
+        <v>0.0007698305488983438</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>226.658417</v>
       </c>
       <c r="I5">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J5">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.078629666666667</v>
+        <v>1.689526666666667</v>
       </c>
       <c r="N5">
-        <v>6.235889</v>
+        <v>5.06858</v>
       </c>
       <c r="O5">
-        <v>0.4099944837797483</v>
+        <v>0.3793973676518417</v>
       </c>
       <c r="P5">
-        <v>0.4099944837797483</v>
+        <v>0.3793973676518417</v>
       </c>
       <c r="Q5">
-        <v>157.0463032586348</v>
+        <v>127.6484799153178</v>
       </c>
       <c r="R5">
-        <v>1413.416729327713</v>
+        <v>1148.83631923786</v>
       </c>
       <c r="S5">
-        <v>0.3309164203442038</v>
+        <v>0.2546284885613666</v>
       </c>
       <c r="T5">
-        <v>0.3309164203442039</v>
+        <v>0.2546284885613666</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>226.658417</v>
       </c>
       <c r="I6">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J6">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>7.123807</v>
       </c>
       <c r="O6">
-        <v>0.4683729254179408</v>
+        <v>0.5332368480836376</v>
       </c>
       <c r="P6">
-        <v>0.4683729254179408</v>
+        <v>0.5332368480836375</v>
       </c>
       <c r="Q6">
         <v>179.4078686259465</v>
@@ -818,10 +818,10 @@
         <v>1614.670817633519</v>
       </c>
       <c r="S6">
-        <v>0.3780350663174059</v>
+        <v>0.3578762117225896</v>
       </c>
       <c r="T6">
-        <v>0.3780350663174059</v>
+        <v>0.3578762117225895</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>226.658417</v>
       </c>
       <c r="I7">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="J7">
-        <v>0.8071240795570661</v>
+        <v>0.6711393126876655</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6166646666666667</v>
+        <v>0.389056</v>
       </c>
       <c r="N7">
-        <v>1.849994</v>
+        <v>1.167168</v>
       </c>
       <c r="O7">
-        <v>0.1216325908023109</v>
+        <v>0.0873657842645208</v>
       </c>
       <c r="P7">
-        <v>0.1216325908023109</v>
+        <v>0.08736578426452078</v>
       </c>
       <c r="Q7">
-        <v>46.59074572216645</v>
+        <v>29.39427236145066</v>
       </c>
       <c r="R7">
-        <v>419.316711499498</v>
+        <v>264.548451253056</v>
       </c>
       <c r="S7">
-        <v>0.09817259289545646</v>
+        <v>0.05863461240370935</v>
       </c>
       <c r="T7">
-        <v>0.09817259289545645</v>
+        <v>0.05863461240370934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H8">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I8">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J8">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.078629666666667</v>
+        <v>1.689526666666667</v>
       </c>
       <c r="N8">
-        <v>6.235889</v>
+        <v>5.06858</v>
       </c>
       <c r="O8">
-        <v>0.4099944837797483</v>
+        <v>0.3793973676518417</v>
       </c>
       <c r="P8">
-        <v>0.4099944837797483</v>
+        <v>0.3793973676518417</v>
       </c>
       <c r="Q8">
-        <v>34.52373494878611</v>
+        <v>60.87228291515555</v>
       </c>
       <c r="R8">
-        <v>310.713614539075</v>
+        <v>547.8505462364</v>
       </c>
       <c r="S8">
-        <v>0.07274587525533646</v>
+        <v>0.1214257890438536</v>
       </c>
       <c r="T8">
-        <v>0.07274587525533646</v>
+        <v>0.1214257890438536</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H9">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I9">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J9">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>7.123807</v>
       </c>
       <c r="O9">
-        <v>0.4683729254179408</v>
+        <v>0.5332368480836376</v>
       </c>
       <c r="P9">
-        <v>0.4683729254179408</v>
+        <v>0.5332368480836375</v>
       </c>
       <c r="Q9">
-        <v>39.43951290574721</v>
+        <v>85.55500655745111</v>
       </c>
       <c r="R9">
-        <v>354.955616151725</v>
+        <v>769.99505901706</v>
       </c>
       <c r="S9">
-        <v>0.08310404103810903</v>
+        <v>0.1706619775106889</v>
       </c>
       <c r="T9">
-        <v>0.08310404103810902</v>
+        <v>0.1706619775106889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>16.60889166666666</v>
+        <v>36.02919333333333</v>
       </c>
       <c r="H10">
-        <v>49.82667499999999</v>
+        <v>108.08758</v>
       </c>
       <c r="I10">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="J10">
-        <v>0.1774313512335352</v>
+        <v>0.3200491078664556</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6166646666666667</v>
+        <v>0.389056</v>
       </c>
       <c r="N10">
-        <v>1.849994</v>
+        <v>1.167168</v>
       </c>
       <c r="O10">
-        <v>0.1216325908023109</v>
+        <v>0.0873657842645208</v>
       </c>
       <c r="P10">
-        <v>0.1216325908023109</v>
+        <v>0.08736578426452078</v>
       </c>
       <c r="Q10">
-        <v>10.24211664332778</v>
+        <v>14.01737384149333</v>
       </c>
       <c r="R10">
-        <v>92.17904978995</v>
+        <v>126.15636457344</v>
       </c>
       <c r="S10">
-        <v>0.02158143494008969</v>
+        <v>0.0279613413119131</v>
       </c>
       <c r="T10">
-        <v>0.02158143494008968</v>
+        <v>0.0279613413119131</v>
       </c>
     </row>
   </sheetData>
